--- a/loaded_influencer_data/shannonperry_/shannonperry__video.xlsx
+++ b/loaded_influencer_data/shannonperry_/shannonperry__video.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,19 +506,19 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@shannonperry_/video/7429395496172555552</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>673</v>
+        <v>694</v>
       </c>
       <c r="C2" t="n">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="D2" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -532,19 +532,19 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>19.01931649331352</v>
+        <v>20.89337175792507</v>
       </c>
       <c r="I2" t="n">
-        <v>17.23625557206538</v>
+        <v>18.44380403458213</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1.783060921248143</v>
+        <v>2.449567723342939</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5943536404160475</v>
+        <v>0.5763688760806917</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -558,7 +558,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@shannonperry_/video/6983743328663784709</t>
         </is>
@@ -567,10 +567,10 @@
         <v>15200</v>
       </c>
       <c r="C3" t="n">
-        <v>534</v>
+        <v>546</v>
       </c>
       <c r="D3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -584,16 +584,16 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3.684210526315789</v>
+        <v>3.782894736842105</v>
       </c>
       <c r="I3" t="n">
-        <v>3.513157894736842</v>
+        <v>3.592105263157895</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1710526315789474</v>
+        <v>0.1907894736842105</v>
       </c>
       <c r="L3" t="n">
         <v>0.3026315789473684</v>
@@ -610,7 +610,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@shannonperry_/video/7300640653237652768</t>
         </is>
@@ -619,7 +619,7 @@
         <v>107700</v>
       </c>
       <c r="C4" t="n">
-        <v>918</v>
+        <v>927</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -632,14 +632,14 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Massive Works Haul🫣 #theworks #newbooks #fyp #viral #bookhaul #booktok</t>
+          <t>Meet Rex🦖🐶 #dapplesausagedog #puppy</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.8532961931290621</v>
+        <v>0.8616527390900649</v>
       </c>
       <c r="I4" t="n">
-        <v>0.8523676880222841</v>
+        <v>0.8607242339832869</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -662,16 +662,16 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@shannonperry_/video/7486903262503767318</t>
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@shannonperry_/video/7489749181825879318</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="C5" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
         <v>6</v>
@@ -684,47 +684,47 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>@DoNotAge .org are now on TikTok shop get yours now while stocks last! #donotage #vitamins #nmn #fyp</t>
+          <t>These taste like an ice lolly!!🍡 Perfect for getting your electrolytes in🫶 @Wellgard #wellgard #electrolytes</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>47.82608695652174</v>
+        <v>17.44186046511628</v>
       </c>
       <c r="I5" t="n">
-        <v>34.78260869565217</v>
+        <v>10.46511627906977</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>13.04347826086956</v>
+        <v>6.976744186046512</v>
       </c>
       <c r="L5" t="n">
-        <v>2.173913043478261</v>
+        <v>1.162790697674419</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>2025-03-29</t>
+          <t>2025-04-06</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@shannonperry_/video/7486586511022984471</t>
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@shannonperry_/video/7489519606332181782</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>320</v>
+        <v>257</v>
       </c>
       <c r="C6" t="n">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="D6" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -734,247 +734,247 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>How stunning is this cover😍🌻Thank you @Eleanor ‘Ellie’ Pilcher @Little, Brown for sending it! Stay tuned for my review 📖</t>
+          <t>Absolutely love the new lip plump from @PROJECT my new fave 💋@wgycreatorapp #lipplumper #lipglosses</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>20</v>
+        <v>15.95330739299611</v>
       </c>
       <c r="I6" t="n">
-        <v>16.25</v>
+        <v>9.338521400778211</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>3.75</v>
+        <v>6.614785992217899</v>
       </c>
       <c r="L6" t="n">
-        <v>0.625</v>
+        <v>0.7782101167315175</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-04-06</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@shannonperry_/video/7486495459268119830</t>
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@shannonperry_/video/7489154065075653910</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>353</v>
+        <v>424</v>
       </c>
       <c r="C7" t="n">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D7" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Heard such good things about this can’t wait to try it out😊 @e.l.f. Cosmetics UK #amazonunboxing #elf</t>
+          <t>Spend the afternoon with us! We have been in a food coma since 😅🫣 #dayout #dayinmylife #foodstalls</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>26.06232294617564</v>
+        <v>24.29245283018868</v>
       </c>
       <c r="I7" t="n">
-        <v>18.13031161473088</v>
+        <v>16.74528301886792</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>7.932011331444759</v>
+        <v>7.547169811320755</v>
       </c>
       <c r="L7" t="n">
-        <v>1.41643059490085</v>
+        <v>0.9433962264150944</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-04-05</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@shannonperry_/video/7486186600926301462</t>
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@shannonperry_/video/7488788627300879638</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>353</v>
+        <v>407</v>
       </c>
       <c r="C8" t="n">
         <v>64</v>
       </c>
       <c r="D8" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Heard such good things about this can’t wait to try it out😊 @e.l.f. Cosmetics UK #amazonunboxing #elf</t>
+          <t>March favourites 💓 if you have any recommendations for products let me know! #marchfavorites</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>26.06232294617564</v>
+        <v>21.37592137592138</v>
       </c>
       <c r="I8" t="n">
-        <v>18.13031161473088</v>
+        <v>15.72481572481573</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>7.932011331444759</v>
+        <v>5.651105651105651</v>
       </c>
       <c r="L8" t="n">
-        <v>1.41643059490085</v>
+        <v>0.7371007371007371</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-04-04</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@shannonperry_/video/7486072972608851222</t>
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@shannonperry_/video/7488404801491930390</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>372</v>
+        <v>419</v>
       </c>
       <c r="C9" t="n">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D9" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Anyone else buy the most random stuff off Temu 🫣😅 #randomhaul #unboxingvideo #fyp</t>
+          <t>Who doesn’t love a Costco haul🤷🏽‍♀️ #costco #hauls #fyp #aprilfirst #spring #shoppinghaul #ugccommunity</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>24.73118279569892</v>
+        <v>23.86634844868735</v>
       </c>
       <c r="I9" t="n">
-        <v>16.93548387096774</v>
+        <v>16.46778042959427</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>7.795698924731183</v>
+        <v>7.398568019093078</v>
       </c>
       <c r="L9" t="n">
-        <v>0.8064516129032258</v>
+        <v>1.431980906921241</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-04-03</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@shannonperry_/video/7485832625190374679</t>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@shannonperry_/video/7488268185448320278</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="C10" t="n">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="D10" t="n">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>@TK Maxx always supplying the cutest tumblers 🎀 #tkmaxx #bow #tumblers #fyp #springvibes</t>
+          <t>Who doesn’t love a Costco haul🤷🏽‍♀️ #costco #hauls #fyp #aprilfirst #spring #shoppinghaul #ugccommunity</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>27.46478873239437</v>
+        <v>25.34562211981567</v>
       </c>
       <c r="I10" t="n">
-        <v>17.6056338028169</v>
+        <v>19.35483870967742</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>9.859154929577464</v>
+        <v>5.990783410138248</v>
       </c>
       <c r="L10" t="n">
-        <v>1.877934272300469</v>
+        <v>2.073732718894009</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-04-02</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@shannonperry_/video/7485712962699709718</t>
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@shannonperry_/video/7486903262503767318</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>432</v>
+        <v>46</v>
       </c>
       <c r="C11" t="n">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="D11" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -984,47 +984,47 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Run don’t walk to M&amp;S they had so many good things there! #fyp #marksandspencer #spring #springjackets</t>
+          <t>@DoNotAge .org are now on TikTok shop get yours now while stocks last! #donotage #vitamins #nmn #fyp</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>16.43518518518519</v>
+        <v>47.82608695652174</v>
       </c>
       <c r="I11" t="n">
-        <v>12.03703703703704</v>
+        <v>34.78260869565217</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>4.398148148148148</v>
+        <v>13.04347826086956</v>
       </c>
       <c r="L11" t="n">
-        <v>0.2314814814814815</v>
+        <v>2.173913043478261</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-29</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@shannonperry_/video/7485464662813740310</t>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@shannonperry_/video/7486586511022984471</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>444</v>
+        <v>320</v>
       </c>
       <c r="C12" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1034,447 +1034,447 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
+          <t>How stunning is this cover😍🌻Thank you @Eleanor ‘Ellie’ Pilcher @Little, Brown for sending it! Stay tuned for my review 📖</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>20</v>
+      </c>
+      <c r="I12" t="n">
+        <v>16.25</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>2025-03-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@shannonperry_/video/7486495459268119830</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>353</v>
+      </c>
+      <c r="C13" t="n">
+        <v>64</v>
+      </c>
+      <c r="D13" t="n">
+        <v>28</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>5</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Heard such good things about this can’t wait to try it out😊 @e.l.f. Cosmetics UK #amazonunboxing #elf</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>26.06232294617564</v>
+      </c>
+      <c r="I13" t="n">
+        <v>18.13031161473088</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>7.932011331444759</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.41643059490085</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>2025-03-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@shannonperry_/video/7486186600926301462</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>353</v>
+      </c>
+      <c r="C14" t="n">
+        <v>64</v>
+      </c>
+      <c r="D14" t="n">
+        <v>28</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>5</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Heard such good things about this can’t wait to try it out😊 @e.l.f. Cosmetics UK #amazonunboxing #elf</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>26.06232294617564</v>
+      </c>
+      <c r="I14" t="n">
+        <v>18.13031161473088</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>7.932011331444759</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.41643059490085</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>2025-03-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@shannonperry_/video/7486072972608851222</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>372</v>
+      </c>
+      <c r="C15" t="n">
+        <v>63</v>
+      </c>
+      <c r="D15" t="n">
+        <v>29</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>3</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Anyone else buy the most random stuff off Temu 🫣😅 #randomhaul #unboxingvideo #fyp</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>24.73118279569892</v>
+      </c>
+      <c r="I15" t="n">
+        <v>16.93548387096774</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>7.795698924731183</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.8064516129032258</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>2025-03-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@shannonperry_/video/7485832625190374679</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>426</v>
+      </c>
+      <c r="C16" t="n">
+        <v>75</v>
+      </c>
+      <c r="D16" t="n">
+        <v>42</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>8</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>@TK Maxx always supplying the cutest tumblers 🎀 #tkmaxx #bow #tumblers #fyp #springvibes</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>27.46478873239437</v>
+      </c>
+      <c r="I16" t="n">
+        <v>17.6056338028169</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>9.859154929577464</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.877934272300469</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>2025-03-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@shannonperry_/video/7485712962699709718</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>432</v>
+      </c>
+      <c r="C17" t="n">
+        <v>52</v>
+      </c>
+      <c r="D17" t="n">
+        <v>19</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Run don’t walk to M&amp;S they had so many good things there! #fyp #marksandspencer #spring #springjackets</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>16.43518518518519</v>
+      </c>
+      <c r="I17" t="n">
+        <v>12.03703703703704</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>4.398148148148148</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.2314814814814815</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>2025-03-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@shannonperry_/video/7485464662813740310</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>444</v>
+      </c>
+      <c r="C18" t="n">
+        <v>48</v>
+      </c>
+      <c r="D18" t="n">
+        <v>13</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>2</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>This is my reminder to clean my brushes🫣🤷🏽‍♀️ #fyp #ugccreator #cleanmakeupbrushes #imjustagirl</t>
         </is>
       </c>
-      <c r="H12" t="n">
+      <c r="H18" t="n">
         <v>13.73873873873874</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I18" t="n">
         <v>10.81081081081081</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
         <v>2.927927927927928</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L18" t="n">
         <v>0.4504504504504505</v>
       </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="inlineStr">
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="inlineStr">
         <is>
           <t>2025-03-26</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@shannonperry_/video/7485393958181293334</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B19" t="n">
         <v>448</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C19" t="n">
         <v>88</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D19" t="n">
         <v>24</v>
       </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
         <v>3</v>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>My death row meal! What’s your fave meal? 🍝 #spagetti #fyp #ugccreator #microinfluencertiktok</t>
         </is>
       </c>
-      <c r="H13" t="n">
+      <c r="H19" t="n">
         <v>25</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I19" t="n">
         <v>19.64285714285714</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
         <v>5.357142857142857</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L19" t="n">
         <v>0.6696428571428571</v>
       </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="inlineStr">
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="inlineStr">
         <is>
           <t>2025-03-25</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@shannonperry_/video/7484937859586182422</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B20" t="n">
         <v>329</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C20" t="n">
         <v>88</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D20" t="n">
         <v>37</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
         <v>3</v>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>@CharlotteTilbury delivery days are the best! Can’t wait to try the new dark spot correcting serum! #AD</t>
         </is>
       </c>
-      <c r="H14" t="n">
+      <c r="H20" t="n">
         <v>37.99392097264438</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I20" t="n">
         <v>26.74772036474164</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
         <v>11.24620060790274</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L20" t="n">
         <v>0.911854103343465</v>
       </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="inlineStr">
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="inlineStr">
         <is>
           <t>2025-03-25</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@shannonperry_/video/7484561922726186262</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B21" t="n">
         <v>492</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C21" t="n">
         <v>53</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D21" t="n">
         <v>18</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>4</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>TikTok shop unboxing 😝#tiktokshop #ugccreator #microinfluencertiktok #ugccommunity</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>14.43089430894309</v>
-      </c>
-      <c r="I15" t="n">
-        <v>10.77235772357724</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>3.658536585365853</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0.8130081300813009</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>2025-03-24</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@shannonperry_/video/7484275559019678998</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>381</v>
-      </c>
-      <c r="C16" t="n">
-        <v>84</v>
-      </c>
-      <c r="D16" t="n">
-        <v>37</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>4</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>@LANEIGE UK delivery days are always the best😍 Has anyone tried any of these? #laneige #skincare #fyp</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>31.75853018372704</v>
-      </c>
-      <c r="I16" t="n">
-        <v>22.04724409448819</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>9.711286089238845</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1.049868766404199</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>2025-03-23</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@shannonperry_/video/7484185137719168278</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>441</v>
-      </c>
-      <c r="C17" t="n">
-        <v>66</v>
-      </c>
-      <c r="D17" t="n">
-        <v>27</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>4</v>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>Happy Friday everyone, we took Rex out for a walk &amp; he was loving chasing all the swans 🦢 #fyp #ugccreator</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>21.08843537414966</v>
-      </c>
-      <c r="I17" t="n">
-        <v>14.96598639455782</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>6.122448979591836</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0.9070294784580499</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>2025-03-22</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@shannonperry_/video/7483995111458737430</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>470</v>
-      </c>
-      <c r="C18" t="n">
-        <v>69</v>
-      </c>
-      <c r="D18" t="n">
-        <v>36</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>6</v>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>I am obsessed &amp; the little flower omg 🌸 @Bubble Skincare @Bubble Insiders #unboxing #bubble</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>22.34042553191489</v>
-      </c>
-      <c r="I18" t="n">
-        <v>14.68085106382979</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>7.659574468085106</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1.276595744680851</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>2025-03-22</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@shannonperry_/video/7483888782312443158</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>395</v>
-      </c>
-      <c r="C19" t="n">
-        <v>61</v>
-      </c>
-      <c r="D19" t="n">
-        <v>16</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>5</v>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>Tonight’s @Bubble Skincare ambassador call was so interesting☺️ @Bubble Insiders #ugccreator #bubble</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>19.49367088607595</v>
-      </c>
-      <c r="I19" t="n">
-        <v>15.44303797468354</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>4.050632911392405</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1.265822784810127</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>2025-03-21</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@shannonperry_/photo/7483584952026647830</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>426</v>
-      </c>
-      <c r="C20" t="n">
-        <v>48</v>
-      </c>
-      <c r="D20" t="n">
-        <v>25</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>5</v>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>#AD Use code SOCIALCAT40 for discount off your first box🐶 @Bella+Duke #ugccreator #microinfluencertiktok</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>17.13615023474178</v>
-      </c>
-      <c r="I20" t="n">
-        <v>11.26760563380282</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>5.868544600938967</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1.173708920187793</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>2025-03-20</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@shannonperry_/video/7483472435191287062</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>404</v>
-      </c>
-      <c r="C21" t="n">
-        <v>68</v>
-      </c>
-      <c r="D21" t="n">
-        <v>19</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -1484,544 +1484,544 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
+          <t>TikTok shop unboxing 😝#tiktokshop #ugccreator #microinfluencertiktok #ugccommunity</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>14.43089430894309</v>
+      </c>
+      <c r="I21" t="n">
+        <v>10.77235772357724</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>3.658536585365853</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.8130081300813009</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>2025-03-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@shannonperry_/video/7484275559019678998</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>381</v>
+      </c>
+      <c r="C22" t="n">
+        <v>84</v>
+      </c>
+      <c r="D22" t="n">
+        <v>37</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>4</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>@LANEIGE UK delivery days are always the best😍 Has anyone tried any of these? #laneige #skincare #fyp</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>31.75853018372704</v>
+      </c>
+      <c r="I22" t="n">
+        <v>22.04724409448819</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>9.711286089238845</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.049868766404199</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>2025-03-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@shannonperry_/video/7484185137719168278</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>441</v>
+      </c>
+      <c r="C23" t="n">
+        <v>66</v>
+      </c>
+      <c r="D23" t="n">
+        <v>27</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>4</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Happy Friday everyone, we took Rex out for a walk &amp; he was loving chasing all the swans 🦢 #fyp #ugccreator</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>21.08843537414966</v>
+      </c>
+      <c r="I23" t="n">
+        <v>14.96598639455782</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>6.122448979591836</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.9070294784580499</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>2025-03-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@shannonperry_/video/7483995111458737430</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>470</v>
+      </c>
+      <c r="C24" t="n">
+        <v>69</v>
+      </c>
+      <c r="D24" t="n">
+        <v>36</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>6</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>I am obsessed &amp; the little flower omg 🌸 @Bubble Skincare @Bubble Insiders #unboxing #bubble</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>22.34042553191489</v>
+      </c>
+      <c r="I24" t="n">
+        <v>14.68085106382979</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>7.659574468085106</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.276595744680851</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>2025-03-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@shannonperry_/video/7483888782312443158</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>395</v>
+      </c>
+      <c r="C25" t="n">
+        <v>61</v>
+      </c>
+      <c r="D25" t="n">
+        <v>16</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>5</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Tonight’s @Bubble Skincare ambassador call was so interesting☺️ @Bubble Insiders #ugccreator #bubble</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>19.49367088607595</v>
+      </c>
+      <c r="I25" t="n">
+        <v>15.44303797468354</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>4.050632911392405</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.265822784810127</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>2025-03-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@shannonperry_/photo/7483584952026647830</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>426</v>
+      </c>
+      <c r="C26" t="n">
+        <v>48</v>
+      </c>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>5</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>#AD Use code SOCIALCAT40 for discount off your first box🐶 @Bella+Duke #ugccreator #microinfluencertiktok</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>17.13615023474178</v>
+      </c>
+      <c r="I26" t="n">
+        <v>11.26760563380282</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>5.868544600938967</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.173708920187793</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>2025-03-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@shannonperry_/video/7483472435191287062</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>404</v>
+      </c>
+      <c r="C27" t="n">
+        <v>68</v>
+      </c>
+      <c r="D27" t="n">
+        <v>19</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>4</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>#ugccreator #boots #bootshaul #microinfluencertiktok #ugccommunity #foryourepage #fyp #teamwork</t>
         </is>
       </c>
-      <c r="H21" t="n">
+      <c r="H27" t="n">
         <v>21.53465346534653</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I27" t="n">
         <v>16.83168316831683</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
         <v>4.702970297029703</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L27" t="n">
         <v>0.9900990099009901</v>
       </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="inlineStr">
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="inlineStr">
         <is>
           <t>2025-03-20</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@shannonperry_/video/7483136799842356502</t>
         </is>
       </c>
-      <c r="B22" t="n">
+      <c r="B28" t="n">
         <v>285</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C28" t="n">
         <v>49</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D28" t="n">
         <v>19</v>
       </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
         <v>2</v>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>Finally caved and got a mini mic and I am obsessed😅🎤 #tiktokshop #ugccreator #microinfluencertiktok</t>
         </is>
       </c>
-      <c r="H22" t="n">
+      <c r="H28" t="n">
         <v>23.85964912280702</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I28" t="n">
         <v>17.19298245614035</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
         <v>6.666666666666667</v>
       </c>
-      <c r="L22" t="n">
+      <c r="L28" t="n">
         <v>0.7017543859649122</v>
       </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="inlineStr">
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="inlineStr">
         <is>
           <t>2025-03-19</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@shannonperry_/video/7482765422387809558</t>
         </is>
       </c>
-      <c r="B23" t="n">
+      <c r="B29" t="n">
         <v>428</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C29" t="n">
         <v>48</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D29" t="n">
         <v>20</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>1</v>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>Spotted the newest @Bubble Skincare display in my local boots how stunning 😍 @Bubble Insiders</t>
         </is>
       </c>
-      <c r="H23" t="n">
+      <c r="H29" t="n">
         <v>15.88785046728972</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I29" t="n">
         <v>11.21495327102804</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
         <v>4.672897196261682</v>
       </c>
-      <c r="L23" t="n">
+      <c r="L29" t="n">
         <v>0.2336448598130841</v>
       </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="inlineStr">
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="inlineStr">
         <is>
           <t>2025-03-18</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@shannonperry_/video/7482389571364277526</t>
         </is>
       </c>
-      <c r="B24" t="n">
+      <c r="B30" t="n">
         <v>480</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C30" t="n">
         <v>63</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D30" t="n">
         <v>28</v>
       </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
         <v>3</v>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>How’s everyone’s Monday going?💝 #fyp #foryourepage #ugccreator #microinfluencertiktok #teamwork</t>
         </is>
       </c>
-      <c r="H24" t="n">
+      <c r="H30" t="n">
         <v>18.95833333333333</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I30" t="n">
         <v>13.125</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
         <v>5.833333333333333</v>
       </c>
-      <c r="L24" t="n">
+      <c r="L30" t="n">
         <v>0.625</v>
       </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="inlineStr">
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="inlineStr">
         <is>
           <t>2025-03-17</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@shannonperry_/video/7481652674912423190</t>
         </is>
       </c>
-      <c r="B25" t="n">
+      <c r="B31" t="n">
         <v>463</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C31" t="n">
         <v>63</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D31" t="n">
         <v>28</v>
       </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
         <v>3</v>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>How’s everyone’s Monday going?💝 #fyp #foryourepage #ugccreator #microinfluencertiktok #teamwork</t>
         </is>
       </c>
-      <c r="H25" t="n">
+      <c r="H31" t="n">
         <v>19.65442764578833</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I31" t="n">
         <v>13.60691144708423</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
         <v>6.047516198704104</v>
       </c>
-      <c r="L25" t="n">
+      <c r="L31" t="n">
         <v>0.6479481641468683</v>
       </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="inlineStr">
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="inlineStr">
         <is>
           <t>2025-03-17</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@shannonperry_/video/7481365312999361814</t>
         </is>
       </c>
-      <c r="B26" t="n">
+      <c r="B32" t="n">
         <v>430</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C32" t="n">
         <v>72</v>
-      </c>
-      <c r="D26" t="n">
-        <v>20</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>3</v>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>Finally got my hands on the raindrop @Jellycat and I am obsessed 💧 #fyp #microinfluencertiktok</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>21.3953488372093</v>
-      </c>
-      <c r="I26" t="n">
-        <v>16.74418604651163</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>4.651162790697675</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0.6976744186046512</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>2025-03-16</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@shannonperry_/video/7481297021115043094</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>576</v>
-      </c>
-      <c r="C27" t="n">
-        <v>93</v>
-      </c>
-      <c r="D27" t="n">
-        <v>30</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>All products used are @CharlotteTilbury use my code shannonpFAN8K to get 15% off😘 #AD</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>21.35416666666666</v>
-      </c>
-      <c r="I27" t="n">
-        <v>16.14583333333334</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
-        <v>5.208333333333334</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>2025-03-14</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@shannonperry_/video/7481005866070740247</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>403</v>
-      </c>
-      <c r="C28" t="n">
-        <v>84</v>
-      </c>
-      <c r="D28" t="n">
-        <v>40</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>3</v>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>My hair has never been so short but I know it will help in the long run 🤞 #ugccreator #fyp #ugccommunity</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>30.76923076923077</v>
-      </c>
-      <c r="I28" t="n">
-        <v>20.84367245657568</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>9.925558312655088</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0.7444168734491315</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>2025-03-14</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@shannonperry_/video/7480902112067505430</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>369</v>
-      </c>
-      <c r="C29" t="n">
-        <v>96</v>
-      </c>
-      <c r="D29" t="n">
-        <v>31</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>10</v>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>@Ninja UK this is my fave one we’ve done so far 😋#ugccreator #fyp #microinfluencertiktok #teamwork</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>34.41734417344173</v>
-      </c>
-      <c r="I29" t="n">
-        <v>26.01626016260163</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>8.401084010840108</v>
-      </c>
-      <c r="L29" t="n">
-        <v>2.710027100271003</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>2025-03-13</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@shannonperry_/video/7480635588497001750</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>371</v>
-      </c>
-      <c r="C30" t="n">
-        <v>80</v>
-      </c>
-      <c r="D30" t="n">
-        <v>11</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
-        <v>1</v>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>The city we got engaged will always hold a special place in my heart 🥺💓 #fyp #ugccreator #microinfluencertiktok</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>24.52830188679245</v>
-      </c>
-      <c r="I30" t="n">
-        <v>21.5633423180593</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
-        <v>2.964959568733154</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0.2695417789757413</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>2025-03-13</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@shannonperry_/video/7480465774709067030</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>441</v>
-      </c>
-      <c r="C31" t="n">
-        <v>74</v>
-      </c>
-      <c r="D31" t="n">
-        <v>27</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
-        <v>4</v>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>@Garnier face masks are my fave! #mygarniercommunity #fyp #ugccreator #microinfluencertiktok #teamwork</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>22.90249433106576</v>
-      </c>
-      <c r="I31" t="n">
-        <v>16.78004535147392</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>6.122448979591836</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0.9070294784580499</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>2025-03-12</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@shannonperry_/video/7480178684523973910</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>654</v>
-      </c>
-      <c r="C32" t="n">
-        <v>58</v>
       </c>
       <c r="D32" t="n">
         <v>20</v>
@@ -2030,248 +2030,248 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>@Garnier face masks are my fave! #mygarniercommunity #fyp #ugccreator #microinfluencertiktok #teamwork</t>
+          <t>Finally got my hands on the raindrop @Jellycat and I am obsessed 💧 #fyp #microinfluencertiktok</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>11.92660550458716</v>
+        <v>21.3953488372093</v>
       </c>
       <c r="I32" t="n">
-        <v>8.868501529051988</v>
+        <v>16.74418604651163</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>3.058103975535168</v>
+        <v>4.651162790697675</v>
       </c>
       <c r="L32" t="n">
-        <v>1.070336391437309</v>
+        <v>0.6976744186046512</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>2025-03-12</t>
+          <t>2025-03-16</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@shannonperry_/video/7479803123809160470</t>
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@shannonperry_/video/7481297021115043094</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>416</v>
+        <v>576</v>
       </c>
       <c r="C33" t="n">
+        <v>93</v>
+      </c>
+      <c r="D33" t="n">
+        <v>30</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>All products used are @CharlotteTilbury use my code shannonpFAN8K to get 15% off😘 #AD</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>21.35416666666666</v>
+      </c>
+      <c r="I33" t="n">
+        <v>16.14583333333334</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>5.208333333333334</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>2025-03-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@shannonperry_/video/7481005866070740247</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>403</v>
+      </c>
+      <c r="C34" t="n">
+        <v>84</v>
+      </c>
+      <c r="D34" t="n">
+        <v>40</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>3</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>My hair has never been so short but I know it will help in the long run 🤞 #ugccreator #fyp #ugccommunity</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>30.76923076923077</v>
+      </c>
+      <c r="I34" t="n">
+        <v>20.84367245657568</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>9.925558312655088</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.7444168734491315</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>2025-03-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@shannonperry_/video/7480902112067505430</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>369</v>
+      </c>
+      <c r="C35" t="n">
+        <v>96</v>
+      </c>
+      <c r="D35" t="n">
+        <v>31</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>10</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>@Ninja UK this is my fave one we’ve done so far 😋#ugccreator #fyp #microinfluencertiktok #teamwork</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>34.41734417344173</v>
+      </c>
+      <c r="I35" t="n">
+        <v>26.01626016260163</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>8.401084010840108</v>
+      </c>
+      <c r="L35" t="n">
+        <v>2.710027100271003</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>2025-03-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@shannonperry_/video/7480635588497001750</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>371</v>
+      </c>
+      <c r="C36" t="n">
         <v>80</v>
       </c>
-      <c r="D33" t="n">
-        <v>12</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
-        <v>2</v>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>Productive first day unemployed 💪 I got this! #ugccreator #fyp #microinfluencertiktok #teamwork</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>22.11538461538461</v>
-      </c>
-      <c r="I33" t="n">
-        <v>19.23076923076923</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
-        <v>2.884615384615385</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0.4807692307692308</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>2025-03-11</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@shannonperry_/video/7479367148117183766</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>471</v>
-      </c>
-      <c r="C34" t="n">
-        <v>73</v>
-      </c>
-      <c r="D34" t="n">
-        <v>58</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
-        <v>8</v>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>If anyone has any job opportunities etc please let me know 🤞 #fyp #ugccreator #microinfluencertiktok #teamwork</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>27.81316348195329</v>
-      </c>
-      <c r="I34" t="n">
-        <v>15.49893842887473</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>12.31422505307856</v>
-      </c>
-      <c r="L34" t="n">
-        <v>1.698513800424629</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>2025-03-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@shannonperry_/video/7479066339198504214</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>475</v>
-      </c>
-      <c r="C35" t="n">
-        <v>50</v>
-      </c>
-      <c r="D35" t="n">
-        <v>27</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>4</v>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>Some bits I’ve picked up recently! @Garnier @Dove Beauty &amp; Personal Care @Aveeno #fyp</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>16.21052631578947</v>
-      </c>
-      <c r="I35" t="n">
-        <v>10.52631578947368</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>5.684210526315789</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0.8421052631578947</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>2025-03-09</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@shannonperry_/video/7478758055467814167</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>416</v>
-      </c>
-      <c r="C36" t="n">
-        <v>65</v>
-      </c>
       <c r="D36" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Happy International Women’s Day! The girlies do it best💓 #internationalwomensday #fyp #ugccreator</t>
+          <t>The city we got engaged will always hold a special place in my heart 🥺💓 #fyp #ugccreator #microinfluencertiktok</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>19.47115384615385</v>
+        <v>24.52830188679245</v>
       </c>
       <c r="I36" t="n">
-        <v>15.625</v>
+        <v>21.5633423180593</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>3.846153846153846</v>
+        <v>2.964959568733154</v>
       </c>
       <c r="L36" t="n">
-        <v>1.682692307692308</v>
+        <v>0.2695417789757413</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>2025-03-08</t>
+          <t>2025-03-13</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@shannonperry_/video/7478640420738616598</t>
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@shannonperry_/video/7480465774709067030</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>408</v>
+        <v>441</v>
       </c>
       <c r="C37" t="n">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D37" t="n">
         <v>27</v>
@@ -2280,451 +2280,451 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
+        <v>4</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>@Garnier face masks are my fave! #mygarniercommunity #fyp #ugccreator #microinfluencertiktok #teamwork</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>22.90249433106576</v>
+      </c>
+      <c r="I37" t="n">
+        <v>16.78004535147392</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>6.122448979591836</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.9070294784580499</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>2025-03-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@shannonperry_/video/7480178684523973910</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>654</v>
+      </c>
+      <c r="C38" t="n">
+        <v>58</v>
+      </c>
+      <c r="D38" t="n">
+        <v>20</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>7</v>
       </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>Use my code shannonpFAN8K for 15% off! @CharlotteTilbury #AD #CharlotteTilbury #MagicBeautyStars #fyp</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>26.7156862745098</v>
-      </c>
-      <c r="I37" t="n">
-        <v>20.09803921568627</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>6.61764705882353</v>
-      </c>
-      <c r="L37" t="n">
-        <v>1.715686274509804</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>2025-03-07</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@shannonperry_/video/7478388915741691158</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>508</v>
-      </c>
-      <c r="C38" t="n">
-        <v>62</v>
-      </c>
-      <c r="D38" t="n">
-        <v>30</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>@Garnier face masks are my fave! #mygarniercommunity #fyp #ugccreator #microinfluencertiktok #teamwork</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>11.92660550458716</v>
+      </c>
+      <c r="I38" t="n">
+        <v>8.868501529051988</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>3.058103975535168</v>
+      </c>
+      <c r="L38" t="n">
+        <v>1.070336391437309</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>2025-03-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@shannonperry_/video/7479803123809160470</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>416</v>
+      </c>
+      <c r="C39" t="n">
+        <v>80</v>
+      </c>
+      <c r="D39" t="n">
+        <v>12</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
         <v>2</v>
       </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>@Garnier face mask saving the day💓 #mygarniercommunity #fyp #ugccreator #microinfluencertiktok #teamwork</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>18.11023622047244</v>
-      </c>
-      <c r="I38" t="n">
-        <v>12.20472440944882</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>5.905511811023622</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0.3937007874015748</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>2025-03-07</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@shannonperry_/video/7478278824770161942</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>483</v>
-      </c>
-      <c r="C39" t="n">
-        <v>71</v>
-      </c>
-      <c r="D39" t="n">
-        <v>28</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Productive first day unemployed 💪 I got this! #ugccreator #fyp #microinfluencertiktok #teamwork</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>22.11538461538461</v>
+      </c>
+      <c r="I39" t="n">
+        <v>19.23076923076923</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>2.884615384615385</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.4807692307692308</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>2025-03-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@shannonperry_/video/7479367148117183766</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>471</v>
+      </c>
+      <c r="C40" t="n">
+        <v>73</v>
+      </c>
+      <c r="D40" t="n">
+        <v>58</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
         <v>8</v>
       </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>Happy Thursday! A little clip from our walk last night😍🌅 #fyp #ugccreator #microinfluencertiktok #teamwork</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>20.49689440993789</v>
-      </c>
-      <c r="I39" t="n">
-        <v>14.69979296066252</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
-        <v>5.797101449275362</v>
-      </c>
-      <c r="L39" t="n">
-        <v>1.656314699792961</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>2025-03-06</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@shannonperry_/video/7478017411610971394</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>470</v>
-      </c>
-      <c r="C40" t="n">
-        <v>79</v>
-      </c>
-      <c r="D40" t="n">
-        <v>31</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>3</v>
-      </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>A shopping trip makes everything better 💓@SPACE NK @Boots UK @Summer Fridays #fyp #ugccreator</t>
+          <t>If anyone has any job opportunities etc please let me know 🤞 #fyp #ugccreator #microinfluencertiktok #teamwork</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>23.40425531914894</v>
+        <v>27.81316348195329</v>
       </c>
       <c r="I40" t="n">
-        <v>16.80851063829787</v>
+        <v>15.49893842887473</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>6.595744680851063</v>
+        <v>12.31422505307856</v>
       </c>
       <c r="L40" t="n">
-        <v>0.6382978723404255</v>
+        <v>1.698513800424629</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>2025-03-06</t>
+          <t>2025-03-10</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@shannonperry_/video/7477890332391148822</t>
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@shannonperry_/video/7479066339198504214</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="C41" t="n">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="D41" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Sitting in the sun this morning has really helped my mood☀️#fyp #microinfluencertiktok #ugccreator #teamwork</t>
+          <t>Some bits I’ve picked up recently! @Garnier @Dove Beauty &amp; Personal Care @Aveeno #fyp</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>23.10838445807771</v>
+        <v>16.21052631578947</v>
       </c>
       <c r="I41" t="n">
-        <v>17.79141104294478</v>
+        <v>10.52631578947368</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>5.316973415132924</v>
+        <v>5.684210526315789</v>
       </c>
       <c r="L41" t="n">
-        <v>1.431492842535787</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2025-03-09</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@shannonperry_/video/7477647179344055554</t>
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@shannonperry_/video/7478758055467814167</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>452</v>
+        <v>416</v>
       </c>
       <c r="C42" t="n">
         <v>65</v>
       </c>
       <c r="D42" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Use my code shannonpFAN8K to get 15% off! @CharlotteTilbury #AD #CharlotteTilbury</t>
+          <t>Happy International Women’s Day! The girlies do it best💓 #internationalwomensday #fyp #ugccreator</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>20.13274336283186</v>
+        <v>19.47115384615385</v>
       </c>
       <c r="I42" t="n">
-        <v>14.38053097345133</v>
+        <v>15.625</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>5.752212389380531</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="L42" t="n">
-        <v>2.212389380530973</v>
+        <v>1.682692307692308</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2025-03-08</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@shannonperry_/video/7477515695895448854</t>
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@shannonperry_/video/7478640420738616598</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>534</v>
+        <v>408</v>
       </c>
       <c r="C43" t="n">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="D43" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Happy Pancake Day! Can’t wait to make some later🥞🍓🍒 #fyp #microinfluencertiktok #ugccreator #teamwork</t>
+          <t>Use my code shannonpFAN8K for 15% off! @CharlotteTilbury #AD #CharlotteTilbury #MagicBeautyStars #fyp</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>17.04119850187266</v>
+        <v>26.7156862745098</v>
       </c>
       <c r="I43" t="n">
-        <v>13.85767790262172</v>
+        <v>20.09803921568627</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>3.183520599250937</v>
+        <v>6.61764705882353</v>
       </c>
       <c r="L43" t="n">
-        <v>0.7490636704119851</v>
+        <v>1.715686274509804</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>2025-03-04</t>
+          <t>2025-03-07</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@shannonperry_/video/7477275552940903702</t>
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@shannonperry_/video/7478388915741691158</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>489</v>
+        <v>508</v>
       </c>
       <c r="C44" t="n">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="D44" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>@Ninja UK if anyone has any good recipes for this please let me know💓 #fyp #microinfluencertiktok #ugccreator</t>
+          <t>@Garnier face mask saving the day💓 #mygarniercommunity #fyp #ugccreator #microinfluencertiktok #teamwork</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>13.70143149284254</v>
+        <v>18.11023622047244</v>
       </c>
       <c r="I44" t="n">
-        <v>10.22494887525562</v>
+        <v>12.20472440944882</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>3.476482617586912</v>
+        <v>5.905511811023622</v>
       </c>
       <c r="L44" t="n">
-        <v>0.2044989775051125</v>
+        <v>0.3937007874015748</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>2025-03-04</t>
+          <t>2025-03-07</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@shannonperry_/video/7477199467888905494</t>
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@shannonperry_/video/7478278824770161942</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>428</v>
+        <v>483</v>
       </c>
       <c r="C45" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D45" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>A new week means a fresh start we got this girlies🫶 #fyp #microinfluencertiktok #ugccreator #teamwork</t>
+          <t>Happy Thursday! A little clip from our walk last night😍🌅 #fyp #ugccreator #microinfluencertiktok #teamwork</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>21.26168224299065</v>
+        <v>20.49689440993789</v>
       </c>
       <c r="I45" t="n">
-        <v>16.82242990654206</v>
+        <v>14.69979296066252</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>4.439252336448598</v>
+        <v>5.797101449275362</v>
       </c>
       <c r="L45" t="n">
-        <v>1.635514018691589</v>
+        <v>1.656314699792961</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>2025-03-03</t>
+          <t>2025-03-06</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@shannonperry_/video/7476754271648746774</t>
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@shannonperry_/video/7478017411610971394</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C46" t="n">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="D46" t="n">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -2734,147 +2734,147 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Sorry but I am obsessed, his little bum🥺 #fyp #microinfluencertiktok #ugccreator #teamwork</t>
+          <t>A shopping trip makes everything better 💓@SPACE NK @Boots UK @Summer Fridays #fyp #ugccreator</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>12.89640591966173</v>
+        <v>23.40425531914894</v>
       </c>
       <c r="I46" t="n">
-        <v>10.5708245243129</v>
+        <v>16.80851063829787</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>2.325581395348837</v>
+        <v>6.595744680851063</v>
       </c>
       <c r="L46" t="n">
-        <v>0.6342494714587738</v>
+        <v>0.6382978723404255</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>2025-03-03</t>
+          <t>2025-03-06</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@shannonperry_/video/7476454814516301078</t>
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@shannonperry_/video/7477890332391148822</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>440</v>
+        <v>489</v>
       </c>
       <c r="C47" t="n">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="D47" t="n">
+        <v>26</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>7</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Sitting in the sun this morning has really helped my mood☀️#fyp #microinfluencertiktok #ugccreator #teamwork</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>23.10838445807771</v>
+      </c>
+      <c r="I47" t="n">
+        <v>17.79141104294478</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>5.316973415132924</v>
+      </c>
+      <c r="L47" t="n">
+        <v>1.431492842535787</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>2025-03-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@shannonperry_/video/7477647179344055554</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>452</v>
+      </c>
+      <c r="C48" t="n">
+        <v>65</v>
+      </c>
+      <c r="D48" t="n">
+        <v>26</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>10</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Use my code shannonpFAN8K to get 15% off! @CharlotteTilbury #AD #CharlotteTilbury</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>20.13274336283186</v>
+      </c>
+      <c r="I48" t="n">
+        <v>14.38053097345133</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>5.752212389380531</v>
+      </c>
+      <c r="L48" t="n">
+        <v>2.212389380530973</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>2025-03-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@shannonperry_/video/7477515695895448854</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>534</v>
+      </c>
+      <c r="C49" t="n">
+        <v>74</v>
+      </c>
+      <c r="D49" t="n">
         <v>17</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
-        <v>5</v>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>@Summer Fridays the hype is real for this jet lag mask! #fyp #microinfluencertiktok #ugccreator #teamwork</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>14.09090909090909</v>
-      </c>
-      <c r="I47" t="n">
-        <v>10.22727272727273</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="n">
-        <v>3.863636363636363</v>
-      </c>
-      <c r="L47" t="n">
-        <v>1.136363636363636</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>2025-03-02</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@shannonperry_/photo/7476019737181310230</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>496</v>
-      </c>
-      <c r="C48" t="n">
-        <v>78</v>
-      </c>
-      <c r="D48" t="n">
-        <v>16</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" t="n">
-        <v>4</v>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>Productive early mornings🌅💪 #fyp #microinfluencertiktok #ugccreator #teamwork #girlssupportgirls</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>18.95161290322581</v>
-      </c>
-      <c r="I48" t="n">
-        <v>15.7258064516129</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="n">
-        <v>3.225806451612903</v>
-      </c>
-      <c r="L48" t="n">
-        <v>0.8064516129032258</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>2025-03-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@shannonperry_/video/7475767239430524182</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>460</v>
-      </c>
-      <c r="C49" t="n">
-        <v>54</v>
-      </c>
-      <c r="D49" t="n">
-        <v>11</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
@@ -2884,81 +2884,130 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Really trying to think of the positives over the negatives at the moment🙌 #fyp #positiveenergy #whatwillbewillbe</t>
+          <t>Happy Pancake Day! Can’t wait to make some later🥞🍓🍒 #fyp #microinfluencertiktok #ugccreator #teamwork</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>14.1304347826087</v>
+        <v>17.04119850187266</v>
       </c>
       <c r="I49" t="n">
-        <v>11.73913043478261</v>
+        <v>13.85767790262172</v>
       </c>
       <c r="J49" t="n">
         <v>0</v>
       </c>
       <c r="K49" t="n">
-        <v>2.391304347826087</v>
+        <v>3.183520599250937</v>
       </c>
       <c r="L49" t="n">
-        <v>0.8695652173913043</v>
+        <v>0.7490636704119851</v>
       </c>
       <c r="M49" t="n">
         <v>0</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>2025-02-28</t>
+          <t>2025-03-04</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@shannonperry_/photo/7475720782249790742</t>
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@shannonperry_/video/7477275552940903702</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>403</v>
+        <v>489</v>
       </c>
       <c r="C50" t="n">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D50" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E50" t="n">
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>@Redken @Moroccanoil @Kérastase @Tangle Teezer @Wella Professionals @Color Wow UK
-#fyp</t>
+          <t>@Ninja UK if anyone has any good recipes for this please let me know💓 #fyp #microinfluencertiktok #ugccreator</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>17.61786600496278</v>
+        <v>13.70143149284254</v>
       </c>
       <c r="I50" t="n">
-        <v>13.15136476426799</v>
+        <v>10.22494887525562</v>
       </c>
       <c r="J50" t="n">
         <v>0</v>
       </c>
       <c r="K50" t="n">
-        <v>4.466501240694789</v>
+        <v>3.476482617586912</v>
       </c>
       <c r="L50" t="n">
-        <v>0.9925558312655087</v>
+        <v>0.2044989775051125</v>
       </c>
       <c r="M50" t="n">
         <v>0</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>2025-02-27</t>
+          <t>2025-03-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@shannonperry_/video/7477199467888905494</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>428</v>
+      </c>
+      <c r="C51" t="n">
+        <v>72</v>
+      </c>
+      <c r="D51" t="n">
+        <v>19</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>7</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>A new week means a fresh start we got this girlies🫶 #fyp #microinfluencertiktok #ugccreator #teamwork</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>21.26168224299065</v>
+      </c>
+      <c r="I51" t="n">
+        <v>16.82242990654206</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
+        <v>4.439252336448598</v>
+      </c>
+      <c r="L51" t="n">
+        <v>1.635514018691589</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>2025-03-03</t>
         </is>
       </c>
     </row>
